--- a/biology/Médecine/Syndrome_d'Anton-Babinski/Syndrome_d'Anton-Babinski.xlsx
+++ b/biology/Médecine/Syndrome_d'Anton-Babinski/Syndrome_d'Anton-Babinski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Anton-Babinski</t>
+          <t>Syndrome_d'Anton-Babinski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome d'Anton-Babinski est la présence simultanée de trois symptômes majeurs : une héminégligence gauche (pour les droitiers) ; une hémiasomatognosie ; une anosognosie avec anosodiaphorie[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome d'Anton-Babinski est la présence simultanée de trois symptômes majeurs : une héminégligence gauche (pour les droitiers) ; une hémiasomatognosie ; une anosognosie avec anosodiaphorie. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27Anton-Babinski</t>
+          <t>Syndrome_d'Anton-Babinski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une atteinte pariétale de l'hémisphère mineur. Dans l'immense majorité des cas, elle correspond à l'hémisphère cérébral droit pour les droitiers. Pour les gauchers, l'hémisphère peut être le droit ou le gauche.
 </t>
